--- a/analysis/data/counts_absolute_nestAB.xlsx
+++ b/analysis/data/counts_absolute_nestAB.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28125"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="37200" windowHeight="21140" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="37200" windowHeight="21140" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="counts_absolute_nestAB.csv" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="67">
   <si>
     <t>species</t>
   </si>
@@ -226,7 +227,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -238,6 +239,22 @@
       <b/>
       <sz val="12"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -280,16 +297,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="4">
     <cellStyle name="Check Cell" xfId="1" builtinId="23"/>
+    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="3">
@@ -652,8 +673,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4083,7 +4104,2592 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:AN34">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AF36"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="27.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:32">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:32">
+      <c r="A2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2">
+        <v>175</v>
+      </c>
+      <c r="C2">
+        <v>237</v>
+      </c>
+      <c r="E2">
+        <v>38</v>
+      </c>
+      <c r="F2">
+        <v>121</v>
+      </c>
+      <c r="H2">
+        <v>13</v>
+      </c>
+      <c r="I2">
+        <v>8</v>
+      </c>
+      <c r="K2">
+        <v>4</v>
+      </c>
+      <c r="L2">
+        <v>7</v>
+      </c>
+      <c r="N2">
+        <v>2</v>
+      </c>
+      <c r="O2">
+        <v>9</v>
+      </c>
+      <c r="Q2">
+        <v>3</v>
+      </c>
+      <c r="R2">
+        <v>2</v>
+      </c>
+      <c r="T2">
+        <v>8</v>
+      </c>
+      <c r="U2">
+        <v>18</v>
+      </c>
+      <c r="W2">
+        <v>28</v>
+      </c>
+      <c r="X2">
+        <v>77</v>
+      </c>
+      <c r="Z2">
+        <v>6</v>
+      </c>
+      <c r="AA2">
+        <v>0</v>
+      </c>
+      <c r="AB2">
+        <v>10</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
+      </c>
+      <c r="AF2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:32">
+      <c r="A3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>4</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>11</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>17</v>
+      </c>
+      <c r="L3">
+        <v>18</v>
+      </c>
+      <c r="N3">
+        <v>2</v>
+      </c>
+      <c r="O3">
+        <v>7</v>
+      </c>
+      <c r="Q3">
+        <v>6</v>
+      </c>
+      <c r="R3">
+        <v>3</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <v>12</v>
+      </c>
+      <c r="X3">
+        <v>14</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+      <c r="AA3">
+        <v>0</v>
+      </c>
+      <c r="AB3">
+        <v>0</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
+      </c>
+      <c r="AF3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:32">
+      <c r="A4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>3</v>
+      </c>
+      <c r="L4">
+        <v>10</v>
+      </c>
+      <c r="N4">
+        <v>2</v>
+      </c>
+      <c r="O4">
+        <v>6</v>
+      </c>
+      <c r="Q4">
+        <v>4</v>
+      </c>
+      <c r="R4">
+        <v>19</v>
+      </c>
+      <c r="T4">
+        <v>4</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <v>4</v>
+      </c>
+      <c r="X4">
+        <v>41</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+      <c r="AA4">
+        <v>0</v>
+      </c>
+      <c r="AB4">
+        <v>0</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
+      </c>
+      <c r="AF4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:32">
+      <c r="A5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>5</v>
+      </c>
+      <c r="K5">
+        <v>20</v>
+      </c>
+      <c r="L5">
+        <v>23</v>
+      </c>
+      <c r="N5">
+        <v>9</v>
+      </c>
+      <c r="O5">
+        <v>1</v>
+      </c>
+      <c r="Q5">
+        <v>19</v>
+      </c>
+      <c r="R5">
+        <v>20</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>1</v>
+      </c>
+      <c r="W5">
+        <v>6</v>
+      </c>
+      <c r="X5">
+        <v>25</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+      <c r="AA5">
+        <v>0</v>
+      </c>
+      <c r="AB5">
+        <v>0</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
+      </c>
+      <c r="AF5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:32">
+      <c r="A6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>3</v>
+      </c>
+      <c r="H6">
+        <v>37</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>4</v>
+      </c>
+      <c r="N6">
+        <v>1</v>
+      </c>
+      <c r="O6">
+        <v>3</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>4</v>
+      </c>
+      <c r="T6">
+        <v>30</v>
+      </c>
+      <c r="U6">
+        <v>3</v>
+      </c>
+      <c r="W6">
+        <v>1</v>
+      </c>
+      <c r="X6">
+        <v>14</v>
+      </c>
+      <c r="Z6">
+        <v>23</v>
+      </c>
+      <c r="AA6">
+        <v>49</v>
+      </c>
+      <c r="AB6">
+        <v>3</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <v>0</v>
+      </c>
+      <c r="AF6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:32">
+      <c r="A7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>3</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>3</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>4</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>3</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>4</v>
+      </c>
+      <c r="T7">
+        <v>15</v>
+      </c>
+      <c r="U7">
+        <v>3</v>
+      </c>
+      <c r="W7">
+        <v>2</v>
+      </c>
+      <c r="X7">
+        <v>14</v>
+      </c>
+      <c r="Z7">
+        <v>7</v>
+      </c>
+      <c r="AA7">
+        <v>0</v>
+      </c>
+      <c r="AB7">
+        <v>3</v>
+      </c>
+      <c r="AD7">
+        <v>0</v>
+      </c>
+      <c r="AE7">
+        <v>0</v>
+      </c>
+      <c r="AF7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:32">
+      <c r="A8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8">
+        <v>96</v>
+      </c>
+      <c r="C8">
+        <v>80</v>
+      </c>
+      <c r="E8">
+        <v>58</v>
+      </c>
+      <c r="F8">
+        <v>88</v>
+      </c>
+      <c r="H8">
+        <v>10</v>
+      </c>
+      <c r="I8">
+        <v>6</v>
+      </c>
+      <c r="K8">
+        <v>31</v>
+      </c>
+      <c r="L8">
+        <v>10</v>
+      </c>
+      <c r="N8">
+        <v>2</v>
+      </c>
+      <c r="O8">
+        <v>3</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <v>0</v>
+      </c>
+      <c r="W8">
+        <v>0</v>
+      </c>
+      <c r="X8">
+        <v>0</v>
+      </c>
+      <c r="Z8">
+        <v>35</v>
+      </c>
+      <c r="AA8">
+        <v>0</v>
+      </c>
+      <c r="AB8">
+        <v>71</v>
+      </c>
+      <c r="AD8">
+        <v>0</v>
+      </c>
+      <c r="AE8">
+        <v>0</v>
+      </c>
+      <c r="AF8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:32">
+      <c r="A9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>2</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>2</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <v>0</v>
+      </c>
+      <c r="U9">
+        <v>0</v>
+      </c>
+      <c r="W9">
+        <v>0</v>
+      </c>
+      <c r="X9">
+        <v>7</v>
+      </c>
+      <c r="Z9">
+        <v>5</v>
+      </c>
+      <c r="AA9">
+        <v>6</v>
+      </c>
+      <c r="AB9">
+        <v>7</v>
+      </c>
+      <c r="AD9">
+        <v>0</v>
+      </c>
+      <c r="AE9">
+        <v>0</v>
+      </c>
+      <c r="AF9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32">
+      <c r="A10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10">
+        <v>14</v>
+      </c>
+      <c r="C10">
+        <v>24</v>
+      </c>
+      <c r="E10">
+        <v>10</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>6</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="K10">
+        <v>12</v>
+      </c>
+      <c r="L10">
+        <v>28</v>
+      </c>
+      <c r="N10">
+        <v>3</v>
+      </c>
+      <c r="O10">
+        <v>4</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>1</v>
+      </c>
+      <c r="T10">
+        <v>1</v>
+      </c>
+      <c r="U10">
+        <v>0</v>
+      </c>
+      <c r="W10">
+        <v>0</v>
+      </c>
+      <c r="X10">
+        <v>8</v>
+      </c>
+      <c r="Z10">
+        <v>10</v>
+      </c>
+      <c r="AA10">
+        <v>0</v>
+      </c>
+      <c r="AB10">
+        <v>34</v>
+      </c>
+      <c r="AD10">
+        <v>0</v>
+      </c>
+      <c r="AE10">
+        <v>0</v>
+      </c>
+      <c r="AF10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:32">
+      <c r="A11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>2</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <v>0</v>
+      </c>
+      <c r="U11">
+        <v>0</v>
+      </c>
+      <c r="W11">
+        <v>0</v>
+      </c>
+      <c r="X11">
+        <v>2</v>
+      </c>
+      <c r="Z11">
+        <v>0</v>
+      </c>
+      <c r="AA11">
+        <v>0</v>
+      </c>
+      <c r="AB11">
+        <v>0</v>
+      </c>
+      <c r="AD11">
+        <v>0</v>
+      </c>
+      <c r="AE11">
+        <v>0</v>
+      </c>
+      <c r="AF11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:32">
+      <c r="A12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>9</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <v>4</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <v>5</v>
+      </c>
+      <c r="U12">
+        <v>3</v>
+      </c>
+      <c r="W12">
+        <v>0</v>
+      </c>
+      <c r="X12">
+        <v>3</v>
+      </c>
+      <c r="Z12">
+        <v>0</v>
+      </c>
+      <c r="AA12">
+        <v>0</v>
+      </c>
+      <c r="AB12">
+        <v>0</v>
+      </c>
+      <c r="AD12">
+        <v>0</v>
+      </c>
+      <c r="AE12">
+        <v>0</v>
+      </c>
+      <c r="AF12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32">
+      <c r="A13" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13" t="s">
+        <v>43</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13" t="s">
+        <v>43</v>
+      </c>
+      <c r="H13">
+        <v>3</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13" t="s">
+        <v>43</v>
+      </c>
+      <c r="N13">
+        <v>2</v>
+      </c>
+      <c r="O13" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <v>4</v>
+      </c>
+      <c r="U13" t="s">
+        <v>43</v>
+      </c>
+      <c r="W13">
+        <v>0</v>
+      </c>
+      <c r="X13" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z13">
+        <v>0</v>
+      </c>
+      <c r="AA13">
+        <v>0</v>
+      </c>
+      <c r="AB13">
+        <v>0</v>
+      </c>
+      <c r="AD13">
+        <v>0</v>
+      </c>
+      <c r="AE13">
+        <v>0</v>
+      </c>
+      <c r="AF13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32">
+      <c r="A14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>1</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>1</v>
+      </c>
+      <c r="T14">
+        <v>0</v>
+      </c>
+      <c r="U14">
+        <v>12</v>
+      </c>
+      <c r="W14">
+        <v>0</v>
+      </c>
+      <c r="X14">
+        <v>2</v>
+      </c>
+      <c r="Z14">
+        <v>0</v>
+      </c>
+      <c r="AA14">
+        <v>0</v>
+      </c>
+      <c r="AB14">
+        <v>0</v>
+      </c>
+      <c r="AD14">
+        <v>0</v>
+      </c>
+      <c r="AE14">
+        <v>0</v>
+      </c>
+      <c r="AF14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32">
+      <c r="A15" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>34</v>
+      </c>
+      <c r="I15">
+        <v>3</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>11</v>
+      </c>
+      <c r="O15">
+        <v>9</v>
+      </c>
+      <c r="Q15">
+        <v>4</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="T15">
+        <v>21</v>
+      </c>
+      <c r="U15">
+        <v>29</v>
+      </c>
+      <c r="W15">
+        <v>9</v>
+      </c>
+      <c r="X15">
+        <v>87</v>
+      </c>
+      <c r="Z15">
+        <v>7</v>
+      </c>
+      <c r="AA15">
+        <v>0</v>
+      </c>
+      <c r="AB15">
+        <v>25</v>
+      </c>
+      <c r="AD15">
+        <v>0</v>
+      </c>
+      <c r="AE15">
+        <v>0</v>
+      </c>
+      <c r="AF15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32">
+      <c r="A16" t="s">
+        <v>46</v>
+      </c>
+      <c r="B16">
+        <v>8</v>
+      </c>
+      <c r="C16">
+        <v>12</v>
+      </c>
+      <c r="E16">
+        <v>38</v>
+      </c>
+      <c r="F16">
+        <v>3</v>
+      </c>
+      <c r="H16">
+        <v>4</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>3</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="T16">
+        <v>33</v>
+      </c>
+      <c r="U16">
+        <v>1</v>
+      </c>
+      <c r="W16">
+        <v>10</v>
+      </c>
+      <c r="X16">
+        <v>4</v>
+      </c>
+      <c r="Z16">
+        <v>33</v>
+      </c>
+      <c r="AA16">
+        <v>0</v>
+      </c>
+      <c r="AB16">
+        <v>21</v>
+      </c>
+      <c r="AD16">
+        <v>0</v>
+      </c>
+      <c r="AE16">
+        <v>0</v>
+      </c>
+      <c r="AF16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:32">
+      <c r="A17" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17">
+        <v>19</v>
+      </c>
+      <c r="C17">
+        <v>26</v>
+      </c>
+      <c r="E17">
+        <v>17</v>
+      </c>
+      <c r="F17">
+        <v>163</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>1</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="T17">
+        <v>0</v>
+      </c>
+      <c r="U17">
+        <v>0</v>
+      </c>
+      <c r="W17">
+        <v>0</v>
+      </c>
+      <c r="X17">
+        <v>0</v>
+      </c>
+      <c r="Z17">
+        <v>0</v>
+      </c>
+      <c r="AA17">
+        <v>0</v>
+      </c>
+      <c r="AB17">
+        <v>0</v>
+      </c>
+      <c r="AD17">
+        <v>226</v>
+      </c>
+      <c r="AE17">
+        <v>78</v>
+      </c>
+      <c r="AF17">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="18" spans="1:32">
+      <c r="A18" t="s">
+        <v>48</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>5</v>
+      </c>
+      <c r="I18">
+        <v>5</v>
+      </c>
+      <c r="K18">
+        <v>4</v>
+      </c>
+      <c r="L18">
+        <v>27</v>
+      </c>
+      <c r="N18">
+        <v>29</v>
+      </c>
+      <c r="O18">
+        <v>9</v>
+      </c>
+      <c r="Q18">
+        <v>10</v>
+      </c>
+      <c r="R18">
+        <v>22</v>
+      </c>
+      <c r="T18">
+        <v>16</v>
+      </c>
+      <c r="U18">
+        <v>18</v>
+      </c>
+      <c r="W18">
+        <v>14</v>
+      </c>
+      <c r="X18">
+        <v>108</v>
+      </c>
+      <c r="Z18">
+        <v>2</v>
+      </c>
+      <c r="AA18">
+        <v>0</v>
+      </c>
+      <c r="AB18">
+        <v>12</v>
+      </c>
+      <c r="AD18">
+        <v>0</v>
+      </c>
+      <c r="AE18">
+        <v>0</v>
+      </c>
+      <c r="AF18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:32">
+      <c r="A19" t="s">
+        <v>49</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>6</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>8</v>
+      </c>
+      <c r="L19">
+        <v>15</v>
+      </c>
+      <c r="N19">
+        <v>11</v>
+      </c>
+      <c r="O19">
+        <v>6</v>
+      </c>
+      <c r="Q19">
+        <v>15</v>
+      </c>
+      <c r="R19">
+        <v>23</v>
+      </c>
+      <c r="T19">
+        <v>0</v>
+      </c>
+      <c r="U19">
+        <v>4</v>
+      </c>
+      <c r="W19">
+        <v>12</v>
+      </c>
+      <c r="X19">
+        <v>51</v>
+      </c>
+      <c r="Z19">
+        <v>3</v>
+      </c>
+      <c r="AA19">
+        <v>0</v>
+      </c>
+      <c r="AB19">
+        <v>0</v>
+      </c>
+      <c r="AD19">
+        <v>0</v>
+      </c>
+      <c r="AE19">
+        <v>0</v>
+      </c>
+      <c r="AF19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:32">
+      <c r="A20" t="s">
+        <v>50</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>73</v>
+      </c>
+      <c r="I20">
+        <v>28</v>
+      </c>
+      <c r="K20">
+        <v>95</v>
+      </c>
+      <c r="L20">
+        <v>219</v>
+      </c>
+      <c r="N20">
+        <v>196</v>
+      </c>
+      <c r="O20">
+        <v>207</v>
+      </c>
+      <c r="Q20">
+        <v>131</v>
+      </c>
+      <c r="R20">
+        <v>191</v>
+      </c>
+      <c r="T20">
+        <v>53</v>
+      </c>
+      <c r="U20">
+        <v>91</v>
+      </c>
+      <c r="W20">
+        <v>115</v>
+      </c>
+      <c r="X20">
+        <v>524</v>
+      </c>
+      <c r="Z20">
+        <v>68</v>
+      </c>
+      <c r="AA20">
+        <v>0</v>
+      </c>
+      <c r="AB20">
+        <v>69</v>
+      </c>
+      <c r="AD20">
+        <v>0</v>
+      </c>
+      <c r="AE20">
+        <v>0</v>
+      </c>
+      <c r="AF20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:32">
+      <c r="A21" t="s">
+        <v>51</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>4</v>
+      </c>
+      <c r="N21">
+        <v>12</v>
+      </c>
+      <c r="O21">
+        <v>1</v>
+      </c>
+      <c r="Q21">
+        <v>8</v>
+      </c>
+      <c r="R21">
+        <v>25</v>
+      </c>
+      <c r="T21">
+        <v>6</v>
+      </c>
+      <c r="U21">
+        <v>12</v>
+      </c>
+      <c r="W21">
+        <v>2</v>
+      </c>
+      <c r="X21">
+        <v>25</v>
+      </c>
+      <c r="Z21">
+        <v>2</v>
+      </c>
+      <c r="AA21">
+        <v>0</v>
+      </c>
+      <c r="AB21">
+        <v>7</v>
+      </c>
+      <c r="AD21">
+        <v>0</v>
+      </c>
+      <c r="AE21">
+        <v>0</v>
+      </c>
+      <c r="AF21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:32">
+      <c r="A22" t="s">
+        <v>52</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>17</v>
+      </c>
+      <c r="I22">
+        <v>5</v>
+      </c>
+      <c r="K22">
+        <v>30</v>
+      </c>
+      <c r="L22">
+        <v>27</v>
+      </c>
+      <c r="N22">
+        <v>52</v>
+      </c>
+      <c r="O22">
+        <v>34</v>
+      </c>
+      <c r="Q22">
+        <v>32</v>
+      </c>
+      <c r="R22">
+        <v>56</v>
+      </c>
+      <c r="T22">
+        <v>13</v>
+      </c>
+      <c r="U22">
+        <v>60</v>
+      </c>
+      <c r="W22">
+        <v>28</v>
+      </c>
+      <c r="X22">
+        <v>195</v>
+      </c>
+      <c r="Z22">
+        <v>46</v>
+      </c>
+      <c r="AA22">
+        <v>0</v>
+      </c>
+      <c r="AB22">
+        <v>75</v>
+      </c>
+      <c r="AD22">
+        <v>0</v>
+      </c>
+      <c r="AE22">
+        <v>0</v>
+      </c>
+      <c r="AF22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:32">
+      <c r="A23" t="s">
+        <v>53</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>2</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>1</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>6</v>
+      </c>
+      <c r="L23">
+        <v>17</v>
+      </c>
+      <c r="N23">
+        <v>3</v>
+      </c>
+      <c r="O23">
+        <v>9</v>
+      </c>
+      <c r="Q23">
+        <v>4</v>
+      </c>
+      <c r="R23">
+        <v>12</v>
+      </c>
+      <c r="T23">
+        <v>0</v>
+      </c>
+      <c r="U23">
+        <v>1</v>
+      </c>
+      <c r="W23">
+        <v>0</v>
+      </c>
+      <c r="X23">
+        <v>2</v>
+      </c>
+      <c r="Z23">
+        <v>1</v>
+      </c>
+      <c r="AA23">
+        <v>0</v>
+      </c>
+      <c r="AB23">
+        <v>0</v>
+      </c>
+      <c r="AD23">
+        <v>0</v>
+      </c>
+      <c r="AE23">
+        <v>0</v>
+      </c>
+      <c r="AF23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:32">
+      <c r="A24" t="s">
+        <v>54</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>2</v>
+      </c>
+      <c r="I24">
+        <v>1</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>7</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="T24">
+        <v>16</v>
+      </c>
+      <c r="U24">
+        <v>12</v>
+      </c>
+      <c r="W24">
+        <v>22</v>
+      </c>
+      <c r="X24">
+        <v>224</v>
+      </c>
+      <c r="Z24">
+        <v>5</v>
+      </c>
+      <c r="AA24">
+        <v>0</v>
+      </c>
+      <c r="AB24">
+        <v>3</v>
+      </c>
+      <c r="AD24">
+        <v>0</v>
+      </c>
+      <c r="AE24">
+        <v>0</v>
+      </c>
+      <c r="AF24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:32">
+      <c r="A25" t="s">
+        <v>55</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>2</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>1</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="T25">
+        <v>0</v>
+      </c>
+      <c r="U25">
+        <v>18</v>
+      </c>
+      <c r="W25">
+        <v>1</v>
+      </c>
+      <c r="X25">
+        <v>15</v>
+      </c>
+      <c r="Z25">
+        <v>0</v>
+      </c>
+      <c r="AA25">
+        <v>0</v>
+      </c>
+      <c r="AB25">
+        <v>0</v>
+      </c>
+      <c r="AD25">
+        <v>0</v>
+      </c>
+      <c r="AE25">
+        <v>0</v>
+      </c>
+      <c r="AF25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:32">
+      <c r="A26" t="s">
+        <v>56</v>
+      </c>
+      <c r="B26">
+        <v>5</v>
+      </c>
+      <c r="C26">
+        <v>5</v>
+      </c>
+      <c r="E26">
+        <v>5</v>
+      </c>
+      <c r="F26">
+        <v>8</v>
+      </c>
+      <c r="H26">
+        <v>52</v>
+      </c>
+      <c r="I26">
+        <v>19</v>
+      </c>
+      <c r="K26">
+        <v>18</v>
+      </c>
+      <c r="L26">
+        <v>68</v>
+      </c>
+      <c r="N26">
+        <v>24</v>
+      </c>
+      <c r="O26">
+        <v>34</v>
+      </c>
+      <c r="Q26">
+        <v>63</v>
+      </c>
+      <c r="R26">
+        <v>96</v>
+      </c>
+      <c r="T26">
+        <v>77</v>
+      </c>
+      <c r="U26">
+        <v>24</v>
+      </c>
+      <c r="W26">
+        <v>65</v>
+      </c>
+      <c r="X26">
+        <v>314</v>
+      </c>
+      <c r="Z26">
+        <v>2</v>
+      </c>
+      <c r="AA26">
+        <v>0</v>
+      </c>
+      <c r="AB26">
+        <v>12</v>
+      </c>
+      <c r="AD26">
+        <v>0</v>
+      </c>
+      <c r="AE26">
+        <v>0</v>
+      </c>
+      <c r="AF26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:32">
+      <c r="A27" t="s">
+        <v>57</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="N27">
+        <v>1</v>
+      </c>
+      <c r="O27">
+        <v>1</v>
+      </c>
+      <c r="Q27">
+        <v>0</v>
+      </c>
+      <c r="R27">
+        <v>0</v>
+      </c>
+      <c r="T27">
+        <v>0</v>
+      </c>
+      <c r="U27">
+        <v>0</v>
+      </c>
+      <c r="W27">
+        <v>0</v>
+      </c>
+      <c r="X27">
+        <v>3</v>
+      </c>
+      <c r="Z27">
+        <v>0</v>
+      </c>
+      <c r="AA27">
+        <v>0</v>
+      </c>
+      <c r="AB27">
+        <v>0</v>
+      </c>
+      <c r="AD27">
+        <v>0</v>
+      </c>
+      <c r="AE27">
+        <v>0</v>
+      </c>
+      <c r="AF27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:32">
+      <c r="A28" t="s">
+        <v>58</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <v>10</v>
+      </c>
+      <c r="N28">
+        <v>2</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <v>1</v>
+      </c>
+      <c r="R28">
+        <v>0</v>
+      </c>
+      <c r="T28">
+        <v>0</v>
+      </c>
+      <c r="U28">
+        <v>1</v>
+      </c>
+      <c r="W28">
+        <v>0</v>
+      </c>
+      <c r="X28">
+        <v>2</v>
+      </c>
+      <c r="Z28">
+        <v>0</v>
+      </c>
+      <c r="AA28">
+        <v>0</v>
+      </c>
+      <c r="AB28">
+        <v>2</v>
+      </c>
+      <c r="AD28">
+        <v>0</v>
+      </c>
+      <c r="AE28">
+        <v>0</v>
+      </c>
+      <c r="AF28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:32">
+      <c r="A29" t="s">
+        <v>59</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="N29">
+        <v>0</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>0</v>
+      </c>
+      <c r="R29">
+        <v>21</v>
+      </c>
+      <c r="T29">
+        <v>0</v>
+      </c>
+      <c r="U29">
+        <v>0</v>
+      </c>
+      <c r="W29">
+        <v>0</v>
+      </c>
+      <c r="X29">
+        <v>0</v>
+      </c>
+      <c r="Z29">
+        <v>0</v>
+      </c>
+      <c r="AA29">
+        <v>0</v>
+      </c>
+      <c r="AB29">
+        <v>0</v>
+      </c>
+      <c r="AD29">
+        <v>0</v>
+      </c>
+      <c r="AE29">
+        <v>0</v>
+      </c>
+      <c r="AF29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:32">
+      <c r="A30" t="s">
+        <v>60</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+      <c r="N30">
+        <v>0</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <v>0</v>
+      </c>
+      <c r="R30">
+        <v>1</v>
+      </c>
+      <c r="T30">
+        <v>1</v>
+      </c>
+      <c r="U30">
+        <v>0</v>
+      </c>
+      <c r="W30">
+        <v>0</v>
+      </c>
+      <c r="X30">
+        <v>0</v>
+      </c>
+      <c r="Z30">
+        <v>3</v>
+      </c>
+      <c r="AA30">
+        <v>10</v>
+      </c>
+      <c r="AB30">
+        <v>0</v>
+      </c>
+      <c r="AD30">
+        <v>0</v>
+      </c>
+      <c r="AE30">
+        <v>0</v>
+      </c>
+      <c r="AF30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:32">
+      <c r="A31" t="s">
+        <v>61</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
+      <c r="N31">
+        <v>1</v>
+      </c>
+      <c r="O31">
+        <v>1</v>
+      </c>
+      <c r="Q31">
+        <v>0</v>
+      </c>
+      <c r="R31">
+        <v>0</v>
+      </c>
+      <c r="T31">
+        <v>1</v>
+      </c>
+      <c r="U31">
+        <v>3</v>
+      </c>
+      <c r="W31">
+        <v>0</v>
+      </c>
+      <c r="X31">
+        <v>3</v>
+      </c>
+      <c r="Z31">
+        <v>2</v>
+      </c>
+      <c r="AA31">
+        <v>0</v>
+      </c>
+      <c r="AB31">
+        <v>3</v>
+      </c>
+      <c r="AD31">
+        <v>0</v>
+      </c>
+      <c r="AE31">
+        <v>0</v>
+      </c>
+      <c r="AF31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:32">
+      <c r="A32" t="s">
+        <v>62</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="L32" t="s">
+        <v>43</v>
+      </c>
+      <c r="N32">
+        <v>0</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <v>0</v>
+      </c>
+      <c r="R32">
+        <v>0</v>
+      </c>
+      <c r="T32">
+        <v>0</v>
+      </c>
+      <c r="U32" t="s">
+        <v>43</v>
+      </c>
+      <c r="W32">
+        <v>0</v>
+      </c>
+      <c r="X32" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z32">
+        <v>0</v>
+      </c>
+      <c r="AA32">
+        <v>0</v>
+      </c>
+      <c r="AB32">
+        <v>0</v>
+      </c>
+      <c r="AD32">
+        <v>0</v>
+      </c>
+      <c r="AE32">
+        <v>0</v>
+      </c>
+      <c r="AF32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:32">
+      <c r="A33" t="s">
+        <v>63</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="L33">
+        <v>0</v>
+      </c>
+      <c r="N33">
+        <v>0</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <v>0</v>
+      </c>
+      <c r="R33">
+        <v>0</v>
+      </c>
+      <c r="T33">
+        <v>0</v>
+      </c>
+      <c r="U33">
+        <v>0</v>
+      </c>
+      <c r="W33">
+        <v>0</v>
+      </c>
+      <c r="X33">
+        <v>0</v>
+      </c>
+      <c r="Z33">
+        <v>0</v>
+      </c>
+      <c r="AA33">
+        <v>0</v>
+      </c>
+      <c r="AB33">
+        <v>0</v>
+      </c>
+      <c r="AD33">
+        <v>0</v>
+      </c>
+      <c r="AE33">
+        <v>0</v>
+      </c>
+      <c r="AF33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:32">
+      <c r="A34" t="s">
+        <v>64</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34" t="s">
+        <v>43</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34" t="s">
+        <v>43</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="L34">
+        <v>0</v>
+      </c>
+      <c r="N34">
+        <v>0</v>
+      </c>
+      <c r="O34" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q34">
+        <v>0</v>
+      </c>
+      <c r="R34">
+        <v>0</v>
+      </c>
+      <c r="T34">
+        <v>1</v>
+      </c>
+      <c r="U34">
+        <v>0</v>
+      </c>
+      <c r="W34">
+        <v>0</v>
+      </c>
+      <c r="X34">
+        <v>0</v>
+      </c>
+      <c r="Z34">
+        <v>0</v>
+      </c>
+      <c r="AA34">
+        <v>0</v>
+      </c>
+      <c r="AB34">
+        <v>0</v>
+      </c>
+      <c r="AD34">
+        <v>0</v>
+      </c>
+      <c r="AE34">
+        <v>0</v>
+      </c>
+      <c r="AF34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:32">
+      <c r="A35" t="s">
+        <v>65</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35">
+        <v>2</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
+      <c r="L35">
+        <v>5</v>
+      </c>
+      <c r="N35">
+        <v>0</v>
+      </c>
+      <c r="O35">
+        <v>1</v>
+      </c>
+      <c r="Q35">
+        <v>0</v>
+      </c>
+      <c r="R35">
+        <v>0</v>
+      </c>
+      <c r="T35">
+        <v>0</v>
+      </c>
+      <c r="U35">
+        <v>4</v>
+      </c>
+      <c r="W35">
+        <v>0</v>
+      </c>
+      <c r="X35">
+        <v>13</v>
+      </c>
+      <c r="Z35">
+        <v>0</v>
+      </c>
+      <c r="AA35">
+        <v>0</v>
+      </c>
+      <c r="AB35">
+        <v>0</v>
+      </c>
+      <c r="AD35">
+        <v>0</v>
+      </c>
+      <c r="AE35">
+        <v>0</v>
+      </c>
+      <c r="AF35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:32">
+      <c r="A36" t="s">
+        <v>66</v>
+      </c>
+      <c r="B36">
+        <v>318</v>
+      </c>
+      <c r="C36">
+        <v>392</v>
+      </c>
+      <c r="E36">
+        <v>177</v>
+      </c>
+      <c r="F36">
+        <v>386</v>
+      </c>
+      <c r="H36">
+        <v>279</v>
+      </c>
+      <c r="I36">
+        <v>100</v>
+      </c>
+      <c r="K36">
+        <v>265</v>
+      </c>
+      <c r="L36">
+        <v>528</v>
+      </c>
+      <c r="N36">
+        <v>376</v>
+      </c>
+      <c r="O36">
+        <v>367</v>
+      </c>
+      <c r="Q36">
+        <v>300</v>
+      </c>
+      <c r="R36">
+        <v>500</v>
+      </c>
+      <c r="T36">
+        <v>305</v>
+      </c>
+      <c r="U36">
+        <v>378</v>
+      </c>
+      <c r="W36">
+        <v>331</v>
+      </c>
+      <c r="X36">
+        <v>1834</v>
+      </c>
+      <c r="Z36">
+        <v>260</v>
+      </c>
+      <c r="AA36">
+        <v>65</v>
+      </c>
+      <c r="AB36">
+        <v>442</v>
+      </c>
+      <c r="AD36">
+        <v>226</v>
+      </c>
+      <c r="AE36">
+        <v>78</v>
+      </c>
+      <c r="AF36">
+        <v>534</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B2:AF34">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
